--- a/output_sound/fs_16000_threshold_0.40/results_1s.xlsx
+++ b/output_sound/fs_16000_threshold_0.40/results_1s.xlsx
@@ -512,49 +512,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.51</v>
+        <v>12.63</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.23</v>
+        <v>3.62</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="F2" t="n">
-        <v>9.51</v>
+        <v>11.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="H2" t="n">
-        <v>22.05</v>
+        <v>8.26</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="L2" t="n">
-        <v>2.62</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="N2" t="n">
-        <v>876</v>
+        <v>217.91</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>170.71</v>
       </c>
     </row>
   </sheetData>
